--- a/Template/02_Analise_e_Exploracao_df_estat_discretas.xlsx
+++ b/Template/02_Analise_e_Exploracao_df_estat_discretas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="91">
   <si>
     <t>feature</t>
   </si>
@@ -79,13 +79,13 @@
     <t>Rejeitar H0</t>
   </si>
   <si>
-    <t>Teste_Shapiro</t>
-  </si>
-  <si>
-    <t>Teste_Shapiro_p</t>
-  </si>
-  <si>
-    <t>Rejeitar H0-Shapiro</t>
+    <t>Teste_Kolmogorov</t>
+  </si>
+  <si>
+    <t>Teste_Kolmogorov_p</t>
+  </si>
+  <si>
+    <t>Rejeitar H0-Kolmogorov</t>
   </si>
   <si>
     <t>qtd_clientes</t>
@@ -142,6 +142,12 @@
     <t>qtd_clientes_capital</t>
   </si>
   <si>
+    <t>qtd_clientes_fora_capital</t>
+  </si>
+  <si>
+    <t>qtd_clientes_estado</t>
+  </si>
+  <si>
     <t>qtd_clientes_fora_estado</t>
   </si>
   <si>
@@ -232,6 +238,42 @@
     <t>review_score_moda</t>
   </si>
   <si>
+    <t>qtd_mes_01</t>
+  </si>
+  <si>
+    <t>qtd_mes_02</t>
+  </si>
+  <si>
+    <t>qtd_mes_03</t>
+  </si>
+  <si>
+    <t>qtd_mes_04</t>
+  </si>
+  <si>
+    <t>qtd_mes_05</t>
+  </si>
+  <si>
+    <t>qtd_mes_06</t>
+  </si>
+  <si>
+    <t>qtd_mes_07</t>
+  </si>
+  <si>
+    <t>qtd_mes_08</t>
+  </si>
+  <si>
+    <t>qtd_mes_09</t>
+  </si>
+  <si>
+    <t>qtd_mes_10</t>
+  </si>
+  <si>
+    <t>qtd_mes_11</t>
+  </si>
+  <si>
+    <t>qtd_mes_12</t>
+  </si>
+  <si>
     <t>Direita</t>
   </si>
   <si>
@@ -241,10 +283,10 @@
     <t>Esquerda</t>
   </si>
   <si>
-    <t>leptocúrtica-cauda fina e lisa</t>
-  </si>
-  <si>
-    <t>platicúrtica-cauda grossa e pontiaguda</t>
+    <t>leptocúrtica-cauda fina e pontiaguda</t>
+  </si>
+  <si>
+    <t>platicúrtica-cauda grossa e espessa</t>
   </si>
 </sst>
 </file>
@@ -602,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -729,13 +771,13 @@
         <v>8.31</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q2">
         <v>95.48</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S2">
         <v>2373.305512018851</v>
@@ -747,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>0.3305857181549072</v>
+        <v>0.8413447460685429</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -803,13 +845,13 @@
         <v>8.380000000000001</v>
       </c>
       <c r="P3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q3">
         <v>97.14</v>
       </c>
       <c r="R3" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S3">
         <v>2384.511801810203</v>
@@ -821,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="V3">
-        <v>0.3289207220077515</v>
+        <v>0.8413447460685429</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -877,13 +919,13 @@
         <v>23.93</v>
       </c>
       <c r="P4" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q4">
         <v>754.74</v>
       </c>
       <c r="R4" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S4">
         <v>4006.06753790601</v>
@@ -895,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.08298110961914062</v>
+        <v>0.8413447460685429</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -951,13 +993,13 @@
         <v>8.380000000000001</v>
       </c>
       <c r="P5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q5">
         <v>97.14</v>
       </c>
       <c r="R5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S5">
         <v>2384.511801810203</v>
@@ -969,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0.3289207220077515</v>
+        <v>0.8413447460685429</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1025,13 +1067,13 @@
         <v>8.42</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q6">
         <v>97.12</v>
       </c>
       <c r="R6" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S6">
         <v>2390.177222050638</v>
@@ -1043,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="V6">
-        <v>0.3254297375679016</v>
+        <v>0.8413447460685429</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1099,13 +1141,13 @@
         <v>9.050000000000001</v>
       </c>
       <c r="P7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q7">
         <v>175.99</v>
       </c>
       <c r="R7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S7">
         <v>2550.055962557791</v>
@@ -1117,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="V7">
-        <v>0.5926953554153442</v>
+        <v>0.9920156025715062</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1173,13 +1215,13 @@
         <v>6.6</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q8">
         <v>54.73</v>
       </c>
       <c r="R8" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S8">
         <v>2041.237846155056</v>
@@ -1191,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="V8">
-        <v>0.2139855623245239</v>
+        <v>0.5</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1247,13 +1289,13 @@
         <v>2.33</v>
       </c>
       <c r="P9" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q9">
         <v>14.25</v>
       </c>
       <c r="R9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S9">
         <v>947.2698587634925</v>
@@ -1265,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="V9">
-        <v>0.8550816774368286</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1.545003976022747E-36</v>
+        <v>0</v>
       </c>
       <c r="X9" t="b">
         <v>1</v>
@@ -1321,13 +1363,13 @@
         <v>6.05</v>
       </c>
       <c r="P10" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q10">
         <v>54.49</v>
       </c>
       <c r="R10" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S10">
         <v>1952.794797938991</v>
@@ -1339,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <v>0.5101348161697388</v>
+        <v>0.760524480688567</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -1395,13 +1437,13 @@
         <v>9.18</v>
       </c>
       <c r="P11" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q11">
         <v>180.53</v>
       </c>
       <c r="R11" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S11">
         <v>2569.807958224627</v>
@@ -1413,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="V11">
-        <v>0.5889571309089661</v>
+        <v>0.9877936484098657</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -1469,13 +1511,13 @@
         <v>6.12</v>
       </c>
       <c r="P12" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q12">
         <v>56.13</v>
       </c>
       <c r="R12" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S12">
         <v>1968.61161228215</v>
@@ -1487,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="V12">
-        <v>0.5014172792434692</v>
+        <v>0.6519599451035248</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -1543,13 +1585,13 @@
         <v>14.57</v>
       </c>
       <c r="P13" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q13">
         <v>392.04</v>
       </c>
       <c r="R13" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S13">
         <v>3234.141720303422</v>
@@ -1561,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="V13">
-        <v>0.507030725479126</v>
+        <v>0.9458867799939197</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -1617,13 +1659,13 @@
         <v>3</v>
       </c>
       <c r="P14" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q14">
         <v>41.23</v>
       </c>
       <c r="R14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S14">
         <v>1298.355640464572</v>
@@ -1635,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="V14">
-        <v>0.6624963283538818</v>
+        <v>0.8162124736006748</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -1691,13 +1733,13 @@
         <v>10.62</v>
       </c>
       <c r="P15" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q15">
         <v>137.96</v>
       </c>
       <c r="R15" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S15">
         <v>2710.09716282421</v>
@@ -1709,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="V15">
-        <v>0.1410903930664062</v>
+        <v>0.5</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -1765,13 +1807,13 @@
         <v>5.61</v>
       </c>
       <c r="P16" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q16">
         <v>129.19</v>
       </c>
       <c r="R16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S16">
         <v>2001.03606285666</v>
@@ -1783,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="V16">
-        <v>0.6889903545379639</v>
+        <v>0.9491929246462951</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -1839,13 +1881,13 @@
         <v>29.51</v>
       </c>
       <c r="P17" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q17">
         <v>1035.81</v>
       </c>
       <c r="R17" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S17">
         <v>4359.644575757153</v>
@@ -1857,7 +1899,7 @@
         <v>1</v>
       </c>
       <c r="V17">
-        <v>0.05854034423828125</v>
+        <v>0.5</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -1913,13 +1955,13 @@
         <v>10.05</v>
       </c>
       <c r="P18" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q18">
         <v>148</v>
       </c>
       <c r="R18" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S18">
         <v>2653.049265455854</v>
@@ -1931,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="V18">
-        <v>0.2990812063217163</v>
+        <v>0.5</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -1987,13 +2029,13 @@
         <v>7.7</v>
       </c>
       <c r="P19" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q19">
         <v>81.89</v>
       </c>
       <c r="R19" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S19">
         <v>2266.594405695262</v>
@@ -2005,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="V19">
-        <v>0.35736483335495</v>
+        <v>0.6441191730890495</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -2022,55 +2064,55 @@
         <v>1658</v>
       </c>
       <c r="C20">
-        <v>8.609999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>28.2</v>
+        <v>47.65</v>
       </c>
       <c r="F20">
-        <v>794.99</v>
+        <v>2270.1</v>
       </c>
       <c r="G20">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>478</v>
+        <v>797</v>
       </c>
       <c r="N20">
-        <v>478</v>
+        <v>797</v>
       </c>
       <c r="O20">
-        <v>9.119999999999999</v>
+        <v>8.74</v>
       </c>
       <c r="P20" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q20">
-        <v>113.58</v>
+        <v>105.74</v>
       </c>
       <c r="R20" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S20">
-        <v>2503.059579388031</v>
+        <v>2444.483227443739</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -2079,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="V20">
-        <v>0.2898046970367432</v>
+        <v>0.7430335277331992</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2096,19 +2138,19 @@
         <v>1658</v>
       </c>
       <c r="C21">
-        <v>2.29</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>7.14</v>
+        <v>28.2</v>
       </c>
       <c r="F21">
-        <v>50.97</v>
+        <v>794.99</v>
       </c>
       <c r="G21">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2120,31 +2162,31 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M21">
-        <v>124</v>
+        <v>478</v>
       </c>
       <c r="N21">
-        <v>124</v>
+        <v>478</v>
       </c>
       <c r="O21">
-        <v>8.84</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="P21" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q21">
-        <v>111.53</v>
+        <v>113.58</v>
       </c>
       <c r="R21" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S21">
-        <v>2465.405992814854</v>
+        <v>2503.059579388031</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2153,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="V21">
-        <v>0.3164864778518677</v>
+        <v>0.5325389559599785</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -2170,55 +2212,55 @@
         <v>1658</v>
       </c>
       <c r="C22">
-        <v>3.95</v>
+        <v>17.16</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>11.76</v>
+        <v>45.63</v>
       </c>
       <c r="F22">
-        <v>138.19</v>
+        <v>2081.84</v>
       </c>
       <c r="G22">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>205</v>
+        <v>724</v>
       </c>
       <c r="N22">
-        <v>205</v>
+        <v>724</v>
       </c>
       <c r="O22">
-        <v>8.85</v>
+        <v>7.66</v>
       </c>
       <c r="P22" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q22">
-        <v>108.81</v>
+        <v>82.41</v>
       </c>
       <c r="R22" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S22">
-        <v>2463.046691959737</v>
+        <v>2261.987731751705</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2227,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="V22">
-        <v>0.3203318119049072</v>
+        <v>0.7659527074678192</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -2244,19 +2286,19 @@
         <v>1658</v>
       </c>
       <c r="C23">
-        <v>3.12</v>
+        <v>2.29</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>9.140000000000001</v>
+        <v>7.14</v>
       </c>
       <c r="F23">
-        <v>83.56999999999999</v>
+        <v>50.97</v>
       </c>
       <c r="G23">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2268,31 +2310,31 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="N23">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="O23">
-        <v>8.720000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="P23" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q23">
-        <v>104.13</v>
+        <v>111.53</v>
       </c>
       <c r="R23" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S23">
-        <v>2440.059840945667</v>
+        <v>2465.405992814854</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -2301,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="V23">
-        <v>0.3253694176673889</v>
+        <v>0.5</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -2318,19 +2360,19 @@
         <v>1658</v>
       </c>
       <c r="C24">
-        <v>0.77</v>
+        <v>3.95</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>2.63</v>
+        <v>11.76</v>
       </c>
       <c r="F24">
-        <v>6.94</v>
+        <v>138.19</v>
       </c>
       <c r="G24">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2342,31 +2384,31 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="N24">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="O24">
-        <v>8.35</v>
+        <v>8.85</v>
       </c>
       <c r="P24" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q24">
-        <v>101.8</v>
+        <v>108.81</v>
       </c>
       <c r="R24" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S24">
-        <v>2388.165499801276</v>
+        <v>2463.046691959737</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -2375,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="V24">
-        <v>0.3029578328132629</v>
+        <v>0.5</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -2392,19 +2434,19 @@
         <v>1658</v>
       </c>
       <c r="C25">
-        <v>3.45</v>
+        <v>3.12</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>9.539999999999999</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="F25">
-        <v>91.05</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="G25">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2422,25 +2464,25 @@
         <v>3</v>
       </c>
       <c r="M25">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N25">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O25">
-        <v>7.65</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="P25" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q25">
-        <v>81.12</v>
+        <v>104.13</v>
       </c>
       <c r="R25" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S25">
-        <v>2257.492345884519</v>
+        <v>2440.059840945667</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2449,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="V25">
-        <v>0.3537935018539429</v>
+        <v>0.5</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -2466,19 +2508,19 @@
         <v>1658</v>
       </c>
       <c r="C26">
-        <v>3.15</v>
+        <v>0.77</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>8.67</v>
+        <v>2.63</v>
       </c>
       <c r="F26">
-        <v>75.23</v>
+        <v>6.94</v>
       </c>
       <c r="G26">
-        <v>275</v>
+        <v>342</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2490,31 +2532,31 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="N26">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="O26">
-        <v>7.55</v>
+        <v>8.35</v>
       </c>
       <c r="P26" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q26">
-        <v>79.93000000000001</v>
+        <v>101.8</v>
       </c>
       <c r="R26" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S26">
-        <v>2241.773722445834</v>
+        <v>2388.165499801276</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2523,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="V26">
-        <v>0.3579997420310974</v>
+        <v>0.5</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -2540,19 +2582,19 @@
         <v>1658</v>
       </c>
       <c r="C27">
-        <v>9.050000000000001</v>
+        <v>3.45</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>24.78</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="F27">
-        <v>613.96</v>
+        <v>91.05</v>
       </c>
       <c r="G27">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2561,34 +2603,34 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>394</v>
+        <v>149</v>
       </c>
       <c r="N27">
-        <v>394</v>
+        <v>149</v>
       </c>
       <c r="O27">
-        <v>8.140000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="P27" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q27">
-        <v>92.83</v>
+        <v>81.12</v>
       </c>
       <c r="R27" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S27">
-        <v>2346.507370338861</v>
+        <v>2257.492345884519</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -2597,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="V27">
-        <v>0.3450747132301331</v>
+        <v>0.5</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -2614,19 +2656,19 @@
         <v>1658</v>
       </c>
       <c r="C28">
-        <v>5.4</v>
+        <v>3.15</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>15.58</v>
+        <v>8.67</v>
       </c>
       <c r="F28">
-        <v>242.75</v>
+        <v>75.23</v>
       </c>
       <c r="G28">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2641,28 +2683,28 @@
         <v>1</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="N28">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="O28">
-        <v>8.52</v>
+        <v>7.55</v>
       </c>
       <c r="P28" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q28">
-        <v>100.62</v>
+        <v>79.93000000000001</v>
       </c>
       <c r="R28" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S28">
-        <v>2408.633100026696</v>
+        <v>2241.773722445834</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2671,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="V28">
-        <v>0.3296329975128174</v>
+        <v>0.5</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -2688,22 +2730,22 @@
         <v>1658</v>
       </c>
       <c r="C29">
-        <v>19.86</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>55.45</v>
+        <v>24.78</v>
       </c>
       <c r="F29">
-        <v>3075.16</v>
+        <v>613.96</v>
       </c>
       <c r="G29">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2712,31 +2754,31 @@
         <v>1</v>
       </c>
       <c r="K29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M29">
-        <v>867</v>
+        <v>394</v>
       </c>
       <c r="N29">
-        <v>867</v>
+        <v>394</v>
       </c>
       <c r="O29">
-        <v>8.25</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="P29" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q29">
-        <v>94</v>
+        <v>92.83</v>
       </c>
       <c r="R29" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S29">
-        <v>2362.704738060236</v>
+        <v>2346.507370338861</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -2745,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="V29">
-        <v>0.3308741450309753</v>
+        <v>0.6236125385896527</v>
       </c>
       <c r="W29">
         <v>0</v>
@@ -2762,19 +2804,19 @@
         <v>1658</v>
       </c>
       <c r="C30">
-        <v>0.12</v>
+        <v>5.4</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0.51</v>
+        <v>15.58</v>
       </c>
       <c r="F30">
-        <v>0.26</v>
+        <v>242.75</v>
       </c>
       <c r="G30">
-        <v>425</v>
+        <v>289</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2786,31 +2828,31 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="N30">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="O30">
-        <v>6.14</v>
+        <v>8.52</v>
       </c>
       <c r="P30" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q30">
-        <v>47.43</v>
+        <v>100.62</v>
       </c>
       <c r="R30" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S30">
-        <v>1945.271935612912</v>
+        <v>2408.633100026696</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2819,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="V30">
-        <v>0.2553759813308716</v>
+        <v>0.5</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -2836,55 +2878,55 @@
         <v>1658</v>
       </c>
       <c r="C31">
-        <v>1.02</v>
+        <v>19.86</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E31">
-        <v>3.19</v>
+        <v>55.45</v>
       </c>
       <c r="F31">
-        <v>10.18</v>
+        <v>3075.16</v>
       </c>
       <c r="G31">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>60</v>
+        <v>867</v>
       </c>
       <c r="N31">
-        <v>60</v>
+        <v>867</v>
       </c>
       <c r="O31">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="P31" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q31">
-        <v>132.33</v>
+        <v>94</v>
       </c>
       <c r="R31" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S31">
-        <v>2570.979241114223</v>
+        <v>2362.704738060236</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -2893,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="V31">
-        <v>0.3164075016975403</v>
+        <v>0.7949032502904971</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -2910,19 +2952,19 @@
         <v>1658</v>
       </c>
       <c r="C32">
-        <v>5.4</v>
+        <v>0.12</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>15.58</v>
+        <v>0.51</v>
       </c>
       <c r="F32">
-        <v>242.75</v>
+        <v>0.26</v>
       </c>
       <c r="G32">
-        <v>289</v>
+        <v>425</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2934,31 +2976,31 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="N32">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="O32">
-        <v>8.52</v>
+        <v>6.14</v>
       </c>
       <c r="P32" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q32">
-        <v>100.62</v>
+        <v>47.43</v>
       </c>
       <c r="R32" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S32">
-        <v>2408.633100026696</v>
+        <v>1945.271935612912</v>
       </c>
       <c r="T32">
         <v>0</v>
@@ -2967,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="V32">
-        <v>0.3296329975128174</v>
+        <v>0.5</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -2984,55 +3026,55 @@
         <v>1658</v>
       </c>
       <c r="C33">
-        <v>74.34999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="D33">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>219.62</v>
+        <v>3.19</v>
       </c>
       <c r="F33">
-        <v>48232.13</v>
+        <v>10.18</v>
       </c>
       <c r="G33">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>4149</v>
+        <v>60</v>
       </c>
       <c r="N33">
-        <v>4149</v>
+        <v>60</v>
       </c>
       <c r="O33">
-        <v>8.92</v>
+        <v>9.5</v>
       </c>
       <c r="P33" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q33">
-        <v>113.1</v>
+        <v>132.33</v>
       </c>
       <c r="R33" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S33">
-        <v>2477.515010967027</v>
+        <v>2570.979241114223</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -3041,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="V33">
-        <v>0.3088198900222778</v>
+        <v>0.5</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3058,19 +3100,19 @@
         <v>1658</v>
       </c>
       <c r="C34">
-        <v>0.12</v>
+        <v>5.4</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>0.51</v>
+        <v>15.58</v>
       </c>
       <c r="F34">
-        <v>0.26</v>
+        <v>242.75</v>
       </c>
       <c r="G34">
-        <v>425</v>
+        <v>289</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3082,31 +3124,31 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M34">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="N34">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="O34">
-        <v>6.14</v>
+        <v>8.52</v>
       </c>
       <c r="P34" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q34">
-        <v>47.43</v>
+        <v>100.62</v>
       </c>
       <c r="R34" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S34">
-        <v>1945.271935612912</v>
+        <v>2408.633100026696</v>
       </c>
       <c r="T34">
         <v>0</v>
@@ -3115,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="V34">
-        <v>0.2553759813308716</v>
+        <v>0.5</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -3132,55 +3174,55 @@
         <v>1658</v>
       </c>
       <c r="C35">
-        <v>1.55</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E35">
-        <v>5.32</v>
+        <v>219.62</v>
       </c>
       <c r="F35">
-        <v>28.3</v>
+        <v>48232.13</v>
       </c>
       <c r="G35">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="M35">
-        <v>101</v>
+        <v>4149</v>
       </c>
       <c r="N35">
-        <v>101</v>
+        <v>4149</v>
       </c>
       <c r="O35">
-        <v>9.41</v>
+        <v>8.92</v>
       </c>
       <c r="P35" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q35">
-        <v>128.41</v>
+        <v>113.1</v>
       </c>
       <c r="R35" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S35">
-        <v>2556.740402634449</v>
+        <v>2477.515010967027</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -3189,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="V35">
-        <v>0.2940986752510071</v>
+        <v>0.8704947413931959</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -3206,19 +3248,19 @@
         <v>1658</v>
       </c>
       <c r="C36">
-        <v>5.4</v>
+        <v>0.12</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>15.58</v>
+        <v>0.51</v>
       </c>
       <c r="F36">
-        <v>242.75</v>
+        <v>0.26</v>
       </c>
       <c r="G36">
-        <v>289</v>
+        <v>425</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3230,31 +3272,31 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="N36">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="O36">
-        <v>8.52</v>
+        <v>6.14</v>
       </c>
       <c r="P36" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q36">
-        <v>100.62</v>
+        <v>47.43</v>
       </c>
       <c r="R36" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S36">
-        <v>2408.633100026696</v>
+        <v>1945.271935612912</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -3263,7 +3305,7 @@
         <v>1</v>
       </c>
       <c r="V36">
-        <v>0.3296329975128174</v>
+        <v>0.5</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -3280,55 +3322,55 @@
         <v>1658</v>
       </c>
       <c r="C37">
-        <v>19.95</v>
+        <v>1.55</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>55.67</v>
+        <v>5.32</v>
       </c>
       <c r="F37">
-        <v>3099.36</v>
+        <v>28.3</v>
       </c>
       <c r="G37">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>868</v>
+        <v>101</v>
       </c>
       <c r="N37">
-        <v>868</v>
+        <v>101</v>
       </c>
       <c r="O37">
-        <v>8.24</v>
+        <v>9.41</v>
       </c>
       <c r="P37" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q37">
-        <v>93.7</v>
+        <v>128.41</v>
       </c>
       <c r="R37" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S37">
-        <v>2360.880288088105</v>
+        <v>2556.740402634449</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -3337,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="V37">
-        <v>0.3309774994850159</v>
+        <v>0.5</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -3354,19 +3396,19 @@
         <v>1658</v>
       </c>
       <c r="C38">
-        <v>0.12</v>
+        <v>5.4</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>0.51</v>
+        <v>15.58</v>
       </c>
       <c r="F38">
-        <v>0.26</v>
+        <v>242.75</v>
       </c>
       <c r="G38">
-        <v>425</v>
+        <v>289</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3378,31 +3420,31 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="N38">
-        <v>6</v>
+        <v>260</v>
       </c>
       <c r="O38">
-        <v>6.14</v>
+        <v>8.52</v>
       </c>
       <c r="P38" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q38">
-        <v>47.43</v>
+        <v>100.62</v>
       </c>
       <c r="R38" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S38">
-        <v>1945.271935612912</v>
+        <v>2408.633100026696</v>
       </c>
       <c r="T38">
         <v>0</v>
@@ -3411,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="V38">
-        <v>0.2553759813308716</v>
+        <v>0.5</v>
       </c>
       <c r="W38">
         <v>0</v>
@@ -3428,55 +3470,55 @@
         <v>1658</v>
       </c>
       <c r="C39">
-        <v>1.55</v>
+        <v>19.95</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>5.32</v>
+        <v>55.67</v>
       </c>
       <c r="F39">
-        <v>28.3</v>
+        <v>3099.36</v>
       </c>
       <c r="G39">
-        <v>343</v>
+        <v>279</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>101</v>
+        <v>868</v>
       </c>
       <c r="N39">
-        <v>101</v>
+        <v>868</v>
       </c>
       <c r="O39">
-        <v>9.41</v>
+        <v>8.24</v>
       </c>
       <c r="P39" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q39">
-        <v>128.41</v>
+        <v>93.7</v>
       </c>
       <c r="R39" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="S39">
-        <v>2556.740402634449</v>
+        <v>2360.880288088105</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -3485,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="V39">
-        <v>0.2940986752510071</v>
+        <v>0.7949032502904971</v>
       </c>
       <c r="W39">
         <v>0</v>
@@ -3502,67 +3544,67 @@
         <v>1658</v>
       </c>
       <c r="C40">
-        <v>4.4</v>
+        <v>0.12</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>3.57</v>
+        <v>0.51</v>
       </c>
       <c r="F40">
-        <v>12.76</v>
+        <v>0.26</v>
       </c>
       <c r="G40">
-        <v>81</v>
+        <v>425</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N40">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O40">
-        <v>0.62</v>
+        <v>6.14</v>
       </c>
       <c r="P40" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q40">
-        <v>-1.11</v>
+        <v>47.43</v>
       </c>
       <c r="R40" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="S40">
-        <v>755.5777752827906</v>
+        <v>1945.271935612912</v>
       </c>
       <c r="T40">
-        <v>8.479510318039179E-165</v>
+        <v>0</v>
       </c>
       <c r="U40" t="b">
         <v>1</v>
       </c>
       <c r="V40">
-        <v>0.833962082862854</v>
+        <v>0.5</v>
       </c>
       <c r="W40">
-        <v>1.886379507747203E-38</v>
+        <v>0</v>
       </c>
       <c r="X40" t="b">
         <v>1</v>
@@ -3576,67 +3618,67 @@
         <v>1658</v>
       </c>
       <c r="C41">
-        <v>125.84</v>
+        <v>1.55</v>
       </c>
       <c r="D41">
-        <v>92.5</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>115.99</v>
+        <v>5.32</v>
       </c>
       <c r="F41">
-        <v>13453.16</v>
+        <v>28.3</v>
       </c>
       <c r="G41">
-        <v>92</v>
+        <v>343</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>92.5</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="N41">
-        <v>355</v>
+        <v>101</v>
       </c>
       <c r="O41">
-        <v>0.51</v>
+        <v>9.41</v>
       </c>
       <c r="P41" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q41">
-        <v>-1.18</v>
+        <v>128.41</v>
       </c>
       <c r="R41" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="S41">
-        <v>1180.911838934673</v>
+        <v>2556.740402634449</v>
       </c>
       <c r="T41">
-        <v>3.700431491345891E-257</v>
+        <v>0</v>
       </c>
       <c r="U41" t="b">
         <v>1</v>
       </c>
       <c r="V41">
-        <v>0.8767343759536743</v>
+        <v>0.5</v>
       </c>
       <c r="W41">
-        <v>2.50286555642444E-34</v>
+        <v>0</v>
       </c>
       <c r="X41" t="b">
         <v>1</v>
@@ -3650,19 +3692,19 @@
         <v>1658</v>
       </c>
       <c r="C42">
-        <v>2.42</v>
+        <v>4.4</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>1.15</v>
+        <v>3.57</v>
       </c>
       <c r="F42">
-        <v>1.33</v>
+        <v>12.76</v>
       </c>
       <c r="G42">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -3674,43 +3716,43 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O42">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
       <c r="P42" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q42">
-        <v>-1.44</v>
+        <v>-1.11</v>
       </c>
       <c r="R42" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="S42">
-        <v>14334.76336150927</v>
+        <v>755.5777752827906</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>8.479510318039179E-165</v>
       </c>
       <c r="U42" t="b">
         <v>1</v>
       </c>
       <c r="V42">
-        <v>0.8429471850395203</v>
+        <v>0.8413447460685429</v>
       </c>
       <c r="W42">
-        <v>1.159329083841714E-37</v>
+        <v>0</v>
       </c>
       <c r="X42" t="b">
         <v>1</v>
@@ -3724,19 +3766,19 @@
         <v>1658</v>
       </c>
       <c r="C43">
-        <v>2.5</v>
+        <v>125.84</v>
       </c>
       <c r="D43">
-        <v>2.5</v>
+        <v>92.5</v>
       </c>
       <c r="E43">
-        <v>1.12</v>
+        <v>115.99</v>
       </c>
       <c r="F43">
-        <v>1.25</v>
+        <v>13453.16</v>
       </c>
       <c r="G43">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -3745,46 +3787,46 @@
         <v>1</v>
       </c>
       <c r="J43">
-        <v>1.25</v>
+        <v>14</v>
       </c>
       <c r="K43">
-        <v>2.5</v>
+        <v>92.5</v>
       </c>
       <c r="L43">
-        <v>3.75</v>
+        <v>231</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>356</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>355</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="P43" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="Q43">
-        <v>-1.36</v>
+        <v>-1.18</v>
       </c>
       <c r="R43" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="S43">
-        <v>49075.68409093991</v>
+        <v>1180.911838934673</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>3.700431491345891E-257</v>
       </c>
       <c r="U43" t="b">
         <v>1</v>
       </c>
       <c r="V43">
-        <v>0.8559315204620361</v>
+        <v>0.8413447460685429</v>
       </c>
       <c r="W43">
-        <v>1.864213757428125E-36</v>
+        <v>0</v>
       </c>
       <c r="X43" t="b">
         <v>1</v>
@@ -3798,22 +3840,22 @@
         <v>1658</v>
       </c>
       <c r="C44">
-        <v>1.74</v>
+        <v>2.42</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44">
-        <v>0.44</v>
+        <v>1.15</v>
       </c>
       <c r="F44">
-        <v>0.19</v>
+        <v>1.33</v>
       </c>
       <c r="G44">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -3825,37 +3867,37 @@
         <v>2</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44">
-        <v>-1.11</v>
+        <v>0.08</v>
       </c>
       <c r="P44" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="Q44">
-        <v>-0.77</v>
+        <v>-1.44</v>
       </c>
       <c r="R44" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="S44">
-        <v>350.3778002643311</v>
+        <v>14334.76336150927</v>
       </c>
       <c r="T44">
-        <v>8.249495346678006E-77</v>
+        <v>0</v>
       </c>
       <c r="U44" t="b">
         <v>1</v>
       </c>
       <c r="V44">
-        <v>0.544823169708252</v>
+        <v>0.8413447460685429</v>
       </c>
       <c r="W44">
         <v>0</v>
@@ -3872,10 +3914,10 @@
         <v>1658</v>
       </c>
       <c r="C45">
-        <v>2.73</v>
+        <v>2.5</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E45">
         <v>1.12</v>
@@ -3884,22 +3926,22 @@
         <v>1.25</v>
       </c>
       <c r="G45">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M45">
         <v>4</v>
@@ -3908,19 +3950,19 @@
         <v>3</v>
       </c>
       <c r="O45">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="Q45">
-        <v>-1.31</v>
+        <v>-1.36</v>
       </c>
       <c r="R45" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="S45">
-        <v>5701.193556921346</v>
+        <v>49075.68409093991</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -3929,10 +3971,10 @@
         <v>1</v>
       </c>
       <c r="V45">
-        <v>0.8424822092056274</v>
+        <v>0.8413447460685429</v>
       </c>
       <c r="W45">
-        <v>1.05321132952757E-37</v>
+        <v>0</v>
       </c>
       <c r="X45" t="b">
         <v>1</v>
@@ -3946,67 +3988,67 @@
         <v>1658</v>
       </c>
       <c r="C46">
-        <v>2689.94</v>
+        <v>1.74</v>
       </c>
       <c r="D46">
-        <v>2324</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>1248.89</v>
+        <v>0.44</v>
       </c>
       <c r="F46">
-        <v>1559735.46</v>
+        <v>0.19</v>
       </c>
       <c r="G46">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H46">
-        <v>4424</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1111</v>
+        <v>1</v>
       </c>
       <c r="J46">
-        <v>1221</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>2324</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>3424</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>4424</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>3313</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.08</v>
+        <v>-1.11</v>
       </c>
       <c r="P46" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="Q46">
-        <v>-1.43</v>
+        <v>-0.77</v>
       </c>
       <c r="R46" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="S46">
-        <v>14903.0949464128</v>
+        <v>350.3778002643311</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>8.249495346678006E-77</v>
       </c>
       <c r="U46" t="b">
         <v>1</v>
       </c>
       <c r="V46">
-        <v>0.8629071712493896</v>
+        <v>0.8413447460685429</v>
       </c>
       <c r="W46">
-        <v>9.015391647685702E-36</v>
+        <v>0</v>
       </c>
       <c r="X46" t="b">
         <v>1</v>
@@ -4020,67 +4062,67 @@
         <v>1658</v>
       </c>
       <c r="C47">
-        <v>9.4</v>
+        <v>2.73</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>2.81</v>
+        <v>1.12</v>
       </c>
       <c r="F47">
-        <v>7.9</v>
+        <v>1.25</v>
       </c>
       <c r="G47">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H47">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
         <v>4</v>
       </c>
-      <c r="J47">
-        <v>7</v>
-      </c>
-      <c r="K47">
-        <v>9</v>
-      </c>
-      <c r="L47">
-        <v>12</v>
-      </c>
       <c r="M47">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N47">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O47">
-        <v>-0.09</v>
+        <v>-0.27</v>
       </c>
       <c r="P47" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="Q47">
-        <v>-1.01</v>
+        <v>-1.31</v>
       </c>
       <c r="R47" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="S47">
-        <v>380.7817449483112</v>
+        <v>5701.193556921346</v>
       </c>
       <c r="T47">
-        <v>2.062028576951729E-83</v>
+        <v>0</v>
       </c>
       <c r="U47" t="b">
         <v>1</v>
       </c>
       <c r="V47">
-        <v>0.9577810764312744</v>
+        <v>0.8413447460685429</v>
       </c>
       <c r="W47">
-        <v>1.622932804693659E-21</v>
+        <v>0</v>
       </c>
       <c r="X47" t="b">
         <v>1</v>
@@ -4094,64 +4136,64 @@
         <v>1658</v>
       </c>
       <c r="C48">
-        <v>12.82</v>
+        <v>2689.94</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>2324</v>
       </c>
       <c r="E48">
-        <v>15.85</v>
+        <v>1248.89</v>
       </c>
       <c r="F48">
-        <v>251.28</v>
+        <v>1559735.46</v>
       </c>
       <c r="G48">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>4424</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>1111</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>1221</v>
       </c>
       <c r="K48">
-        <v>7</v>
+        <v>2324</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>3424</v>
       </c>
       <c r="M48">
-        <v>128</v>
+        <v>4424</v>
       </c>
       <c r="N48">
-        <v>127</v>
+        <v>3313</v>
       </c>
       <c r="O48">
-        <v>2.54</v>
+        <v>0.08</v>
       </c>
       <c r="P48" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q48">
-        <v>8.630000000000001</v>
+        <v>-1.43</v>
       </c>
       <c r="R48" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="S48">
-        <v>917.4846106792911</v>
+        <v>14903.0949464128</v>
       </c>
       <c r="T48">
-        <v>5.898589527309121E-200</v>
+        <v>0</v>
       </c>
       <c r="U48" t="b">
         <v>1</v>
       </c>
       <c r="V48">
-        <v>0.7227331399917603</v>
+        <v>1</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -4168,69 +4210,1105 @@
         <v>1658</v>
       </c>
       <c r="C49">
+        <v>9.4</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>2.81</v>
+      </c>
+      <c r="F49">
+        <v>7.9</v>
+      </c>
+      <c r="G49">
+        <v>30</v>
+      </c>
+      <c r="H49">
+        <v>8</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <v>7</v>
+      </c>
+      <c r="K49">
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <v>12</v>
+      </c>
+      <c r="M49">
+        <v>14</v>
+      </c>
+      <c r="N49">
+        <v>10</v>
+      </c>
+      <c r="O49">
+        <v>-0.09</v>
+      </c>
+      <c r="P49" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q49">
+        <v>-1.01</v>
+      </c>
+      <c r="R49" t="s">
+        <v>90</v>
+      </c>
+      <c r="S49">
+        <v>380.7817449483112</v>
+      </c>
+      <c r="T49">
+        <v>2.062028576951729E-83</v>
+      </c>
+      <c r="U49" t="b">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>0.9999683287581669</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50">
+        <v>1658</v>
+      </c>
+      <c r="C50">
+        <v>12.82</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>15.85</v>
+      </c>
+      <c r="F50">
+        <v>251.28</v>
+      </c>
+      <c r="G50">
+        <v>124</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+      <c r="K50">
+        <v>7</v>
+      </c>
+      <c r="L50">
+        <v>17</v>
+      </c>
+      <c r="M50">
+        <v>128</v>
+      </c>
+      <c r="N50">
+        <v>127</v>
+      </c>
+      <c r="O50">
+        <v>2.54</v>
+      </c>
+      <c r="P50" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q50">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="R50" t="s">
+        <v>89</v>
+      </c>
+      <c r="S50">
+        <v>917.4846106792911</v>
+      </c>
+      <c r="T50">
+        <v>5.898589527309121E-200</v>
+      </c>
+      <c r="U50" t="b">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>0.8413447460685429</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51">
+        <v>1658</v>
+      </c>
+      <c r="C51">
         <v>4.42</v>
       </c>
-      <c r="D49">
+      <c r="D51">
         <v>5</v>
       </c>
-      <c r="E49">
+      <c r="E51">
         <v>1.19</v>
       </c>
-      <c r="F49">
+      <c r="F51">
         <v>1.41</v>
       </c>
-      <c r="G49">
+      <c r="G51">
         <v>27</v>
       </c>
-      <c r="H49">
+      <c r="H51">
         <v>5</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
         <v>4</v>
       </c>
-      <c r="K49">
+      <c r="K51">
         <v>5</v>
       </c>
-      <c r="L49">
+      <c r="L51">
         <v>5</v>
       </c>
-      <c r="M49">
+      <c r="M51">
         <v>5</v>
       </c>
-      <c r="N49">
+      <c r="N51">
         <v>4</v>
       </c>
-      <c r="O49">
+      <c r="O51">
         <v>-2.1</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P51" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q51">
+        <v>3.11</v>
+      </c>
+      <c r="R51" t="s">
+        <v>89</v>
+      </c>
+      <c r="S51">
+        <v>649.506654488966</v>
+      </c>
+      <c r="T51">
+        <v>9.150019044683799E-142</v>
+      </c>
+      <c r="U51" t="b">
+        <v>1</v>
+      </c>
+      <c r="V51">
+        <v>0.9009420199418319</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52" t="s">
         <v>74</v>
       </c>
-      <c r="Q49">
-        <v>3.11</v>
-      </c>
-      <c r="R49" t="s">
+      <c r="B52">
+        <v>1658</v>
+      </c>
+      <c r="C52">
+        <v>0.44</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>2.13</v>
+      </c>
+      <c r="F52">
+        <v>4.52</v>
+      </c>
+      <c r="G52">
+        <v>484</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>45</v>
+      </c>
+      <c r="N52">
+        <v>45</v>
+      </c>
+      <c r="O52">
+        <v>11.03</v>
+      </c>
+      <c r="P52" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q52">
+        <v>171.78</v>
+      </c>
+      <c r="R52" t="s">
+        <v>89</v>
+      </c>
+      <c r="S52">
+        <v>2784.279425309338</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52" t="b">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>0.5</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53" t="s">
         <v>75</v>
       </c>
-      <c r="S49">
-        <v>649.506654488966</v>
-      </c>
-      <c r="T49">
-        <v>9.150019044683799E-142</v>
-      </c>
-      <c r="U49" t="b">
-        <v>1</v>
-      </c>
-      <c r="V49">
-        <v>0.5360828638076782</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49" t="b">
+      <c r="B53">
+        <v>1658</v>
+      </c>
+      <c r="C53">
+        <v>0.98</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>3.35</v>
+      </c>
+      <c r="F53">
+        <v>11.23</v>
+      </c>
+      <c r="G53">
+        <v>342</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>56</v>
+      </c>
+      <c r="N53">
+        <v>56</v>
+      </c>
+      <c r="O53">
+        <v>7.17</v>
+      </c>
+      <c r="P53" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q53">
+        <v>74.81999999999999</v>
+      </c>
+      <c r="R53" t="s">
+        <v>89</v>
+      </c>
+      <c r="S53">
+        <v>2176.012429355893</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53" t="b">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>0.5</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54">
+        <v>1658</v>
+      </c>
+      <c r="C54">
+        <v>1.5</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>5.01</v>
+      </c>
+      <c r="F54">
+        <v>25.14</v>
+      </c>
+      <c r="G54">
+        <v>334</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>59</v>
+      </c>
+      <c r="N54">
+        <v>59</v>
+      </c>
+      <c r="O54">
+        <v>6.4</v>
+      </c>
+      <c r="P54" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q54">
+        <v>51.8</v>
+      </c>
+      <c r="R54" t="s">
+        <v>89</v>
+      </c>
+      <c r="S54">
+        <v>2001.9026195575</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54" t="b">
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>0.5</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55">
+        <v>1658</v>
+      </c>
+      <c r="C55">
+        <v>1.35</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>4.54</v>
+      </c>
+      <c r="F55">
+        <v>20.58</v>
+      </c>
+      <c r="G55">
+        <v>336</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>73</v>
+      </c>
+      <c r="N55">
+        <v>73</v>
+      </c>
+      <c r="O55">
+        <v>7.28</v>
+      </c>
+      <c r="P55" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q55">
+        <v>74.20999999999999</v>
+      </c>
+      <c r="R55" t="s">
+        <v>89</v>
+      </c>
+      <c r="S55">
+        <v>2190.993108562848</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55" t="b">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>0.5</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56">
+        <v>1658</v>
+      </c>
+      <c r="C56">
+        <v>2.1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>7.02</v>
+      </c>
+      <c r="F56">
+        <v>49.3</v>
+      </c>
+      <c r="G56">
+        <v>334</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>124</v>
+      </c>
+      <c r="N56">
+        <v>124</v>
+      </c>
+      <c r="O56">
+        <v>8.73</v>
+      </c>
+      <c r="P56" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q56">
+        <v>115.46</v>
+      </c>
+      <c r="R56" t="s">
+        <v>89</v>
+      </c>
+      <c r="S56">
+        <v>2455.414826953805</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56" t="b">
+        <v>1</v>
+      </c>
+      <c r="V56">
+        <v>0.5</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57">
+        <v>1658</v>
+      </c>
+      <c r="C57">
+        <v>1.86</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>6.49</v>
+      </c>
+      <c r="F57">
+        <v>42.09</v>
+      </c>
+      <c r="G57">
+        <v>349</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>99</v>
+      </c>
+      <c r="N57">
+        <v>99</v>
+      </c>
+      <c r="O57">
+        <v>8.24</v>
+      </c>
+      <c r="P57" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q57">
+        <v>94.28</v>
+      </c>
+      <c r="R57" t="s">
+        <v>89</v>
+      </c>
+      <c r="S57">
+        <v>2362.318123457007</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57" t="b">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>0.5</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58">
+        <v>1658</v>
+      </c>
+      <c r="C58">
+        <v>2.31</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>8.31</v>
+      </c>
+      <c r="F58">
+        <v>69.01000000000001</v>
+      </c>
+      <c r="G58">
+        <v>360</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>129</v>
+      </c>
+      <c r="N58">
+        <v>129</v>
+      </c>
+      <c r="O58">
+        <v>8.76</v>
+      </c>
+      <c r="P58" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q58">
+        <v>100.01</v>
+      </c>
+      <c r="R58" t="s">
+        <v>89</v>
+      </c>
+      <c r="S58">
+        <v>2439.32061598756</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58" t="b">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>0.5</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59">
+        <v>1658</v>
+      </c>
+      <c r="C59">
+        <v>2.52</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F59">
+        <v>67.55</v>
+      </c>
+      <c r="G59">
+        <v>326</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>144</v>
+      </c>
+      <c r="N59">
+        <v>144</v>
+      </c>
+      <c r="O59">
+        <v>8.99</v>
+      </c>
+      <c r="P59" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q59">
+        <v>111.17</v>
+      </c>
+      <c r="R59" t="s">
+        <v>89</v>
+      </c>
+      <c r="S59">
+        <v>2484.530707179653</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59" t="b">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>0.5</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60">
+        <v>1658</v>
+      </c>
+      <c r="C60">
+        <v>2.45</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>7.9</v>
+      </c>
+      <c r="F60">
+        <v>62.49</v>
+      </c>
+      <c r="G60">
+        <v>322</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>131</v>
+      </c>
+      <c r="N60">
+        <v>131</v>
+      </c>
+      <c r="O60">
+        <v>8.42</v>
+      </c>
+      <c r="P60" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q60">
+        <v>95.36</v>
+      </c>
+      <c r="R60" t="s">
+        <v>89</v>
+      </c>
+      <c r="S60">
+        <v>2387.826926810348</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60" t="b">
+        <v>1</v>
+      </c>
+      <c r="V60">
+        <v>0.5</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61">
+        <v>1658</v>
+      </c>
+      <c r="C61">
+        <v>2.67</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>8.1</v>
+      </c>
+      <c r="F61">
+        <v>65.67</v>
+      </c>
+      <c r="G61">
+        <v>303</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>124</v>
+      </c>
+      <c r="N61">
+        <v>124</v>
+      </c>
+      <c r="O61">
+        <v>8</v>
+      </c>
+      <c r="P61" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q61">
+        <v>86.75</v>
+      </c>
+      <c r="R61" t="s">
+        <v>89</v>
+      </c>
+      <c r="S61">
+        <v>2316.866582299498</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61" t="b">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>0.5</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62">
+        <v>1658</v>
+      </c>
+      <c r="C62">
+        <v>4.36</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>14.09</v>
+      </c>
+      <c r="F62">
+        <v>198.45</v>
+      </c>
+      <c r="G62">
+        <v>323</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62">
+        <v>267</v>
+      </c>
+      <c r="N62">
+        <v>267</v>
+      </c>
+      <c r="O62">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="P62" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q62">
+        <v>128.54</v>
+      </c>
+      <c r="R62" t="s">
+        <v>89</v>
+      </c>
+      <c r="S62">
+        <v>2581.622235283969</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62" t="b">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>0.5</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63">
+        <v>1658</v>
+      </c>
+      <c r="C63">
+        <v>3.25</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>10.61</v>
+      </c>
+      <c r="F63">
+        <v>112.48</v>
+      </c>
+      <c r="G63">
+        <v>326</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>174</v>
+      </c>
+      <c r="N63">
+        <v>174</v>
+      </c>
+      <c r="O63">
+        <v>8.83</v>
+      </c>
+      <c r="P63" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q63">
+        <v>100.55</v>
+      </c>
+      <c r="R63" t="s">
+        <v>89</v>
+      </c>
+      <c r="S63">
+        <v>2449.608070642938</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63" t="b">
+        <v>1</v>
+      </c>
+      <c r="V63">
+        <v>0.5</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63" t="b">
         <v>1</v>
       </c>
     </row>
